--- a/data/income_statement/2digits/size/18_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/18_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>18-Printing and reproduction of recorded media</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>18-Printing and reproduction of recorded media</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,548 +841,618 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1902782.51662</v>
+        <v>1799848.26898</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2181896.89342</v>
+        <v>2020708.72879</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2292859.71246</v>
+        <v>2148818.29094</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2398462.17587</v>
+        <v>2243904.94494</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2377108.42533</v>
+        <v>2194035.99782</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2706778.31618</v>
+        <v>2633780.07711</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3094484.09987</v>
+        <v>3024565.64108</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3411796.73383</v>
+        <v>3149204.5759</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3799010.33208</v>
+        <v>3579326.14863</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3399400.86878</v>
+        <v>3142716.2478</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3769496.78882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3502766.35224</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4781863.82</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1642823.66416</v>
+        <v>1547273.6115</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1942021.33316</v>
+        <v>1795656.02477</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1939405.44431</v>
+        <v>1800333.5464</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1953934.34386</v>
+        <v>1810284.20087</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1958639.63381</v>
+        <v>1784091.71368</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2248036.11889</v>
+        <v>2134188.41233</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2547396.69376</v>
+        <v>2450355.33857</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2753381.9656</v>
+        <v>2502684.91</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3109161.19655</v>
+        <v>2897741.68777</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2573427.45042</v>
+        <v>2344108.2413</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3029423.60109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2767087.88564</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3868522.958</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>237559.70377</v>
+        <v>233637.57619</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>214903.65115</v>
+        <v>203374.08787</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>328824.89867</v>
+        <v>326290.03871</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>418921.14244</v>
+        <v>410682.54624</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>401991.51403</v>
+        <v>395450.28525</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>436053.42733</v>
+        <v>479659.63394</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>510962.20154</v>
+        <v>542600.50187</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>616988.2655099999</v>
+        <v>613005.80424</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>636421.97358</v>
+        <v>635155.45013</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>776352.06653</v>
+        <v>750522.3777599999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>671190.2874199999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>670192.7240599999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>811691.1139999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>22399.14869</v>
+        <v>18937.08129</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>24971.90911</v>
+        <v>21678.61615</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>24629.36948</v>
+        <v>22194.70583</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>25606.68957</v>
+        <v>22938.19783</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>16477.27749</v>
+        <v>14493.99889</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>22688.76996</v>
+        <v>19932.03084</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>36125.20457</v>
+        <v>31609.80064</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>41426.50272</v>
+        <v>33513.86166</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>53427.16195</v>
+        <v>46429.01072999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>49621.35183</v>
+        <v>48085.62874</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>68882.90031</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>65485.74254</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>101649.748</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>66918.88821999999</v>
+        <v>65407.9989</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>94178.11562000001</v>
+        <v>92987.76191</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>96709.71385</v>
+        <v>92048.81409</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>79307.39120999999</v>
+        <v>76533.03918000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>121859.70526</v>
+        <v>109764.89827</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>127173.1093</v>
+        <v>117626.9569</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>158228.78221</v>
+        <v>153460.22965</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>228477.12544</v>
+        <v>211773.40248</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>135153.20978</v>
+        <v>130933.92569</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>110840.97906</v>
+        <v>108879.22519</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>100338.39042</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>98446.48164</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>118848.814</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>47203.29164</v>
+        <v>45699.20987</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>70831.28870999999</v>
+        <v>69946.00988</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>67399.61134</v>
+        <v>63869.7065</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>58915.8534</v>
+        <v>56248.50201</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>91638.83431999999</v>
+        <v>82044.48744</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>101579.31671</v>
+        <v>96248.48165</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>132824.93328</v>
+        <v>128608.01892</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>207961.4806</v>
+        <v>195156.94401</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>116600.93407</v>
+        <v>112703.24532</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>93431.75335</v>
+        <v>92245.06146</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>80502.76329999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>79114.17464</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>90497.64599999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>8494.82747</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>8126.51945</v>
+        <v>7918.884639999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>17153.59432</v>
+        <v>17147.89518</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>13181.65607</v>
+        <v>13074.65543</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>24862.94544</v>
+        <v>22379.33109</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>22382.6761</v>
+        <v>18541.65143</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>23256.03647</v>
+        <v>22703.45447</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>18038.27148</v>
+        <v>14403.94112</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>14837.98308</v>
+        <v>14794.71427</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>14304.48649</v>
+        <v>14275.60321</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>16972.96677</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>23791.162</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>11220.76911</v>
+        <v>11213.96156</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>15220.30746</v>
+        <v>15122.86739</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>12156.50819</v>
+        <v>11031.21241</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>7209.88174</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5357.9255</v>
+        <v>5341.07974</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>3211.11649</v>
+        <v>2836.82382</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2147.81246</v>
+        <v>2148.75626</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2477.37336</v>
+        <v>2212.51735</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3714.29263</v>
+        <v>3435.9661</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3104.73922</v>
+        <v>2358.56052</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2862.66035</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2359.34023</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4560.006</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1835863.6284</v>
+        <v>1734440.27008</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2087718.7778</v>
+        <v>1927720.96688</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2196149.99861</v>
+        <v>2056769.47685</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2319154.78466</v>
+        <v>2167371.90576</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2255248.72007</v>
+        <v>2084271.09955</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2579605.20688</v>
+        <v>2516153.12021</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2936255.31766</v>
+        <v>2871105.41143</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3183319.60839</v>
+        <v>2937431.17342</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3663857.1223</v>
+        <v>3448392.22294</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3288559.88972</v>
+        <v>3033837.02261</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3669158.3984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3404319.8706</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4663015.006</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1463952.70983</v>
+        <v>1384977.49833</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1644045.79939</v>
+        <v>1508799.77987</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1699422.15364</v>
+        <v>1594563.24243</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1786288.2869</v>
+        <v>1666277.57805</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1729281.80347</v>
+        <v>1600608.89163</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2017782.43921</v>
+        <v>1993511.18298</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2361612.6554</v>
+        <v>2313622.74825</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2575351.17795</v>
+        <v>2371871.13</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2947423.80068</v>
+        <v>2750591.29977</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2506314.59104</v>
+        <v>2254209.5044</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2922688.72594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2698601.53791</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>3510150.656</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1101702.7893</v>
+        <v>1024031.58748</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1167106.29778</v>
+        <v>1073810.46985</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1307596.95034</v>
+        <v>1224133.72251</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1375358.68144</v>
+        <v>1274726.88088</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1284485.20197</v>
+        <v>1162496.71789</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1530839.92464</v>
+        <v>1509619.43934</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1814308.65649</v>
+        <v>1773891.75862</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1963027.16844</v>
+        <v>1812951.68202</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2436832.13439</v>
+        <v>2257273.39866</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2121798.7311</v>
+        <v>1926814.87691</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2483012.36926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2289703.37134</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3002871.287</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>182369.34914</v>
+        <v>181210.75865</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>194652.02156</v>
+        <v>153093.2774</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>211878.59384</v>
+        <v>190482.91046</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>135309.67087</v>
+        <v>116451.02004</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>170448.93941</v>
+        <v>164617.84312</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>163039.68646</v>
+        <v>159233.84331</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>248009.71368</v>
+        <v>241390.38714</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>229909.74341</v>
+        <v>185159.49098</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>148158.9458</v>
+        <v>133165.12875</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>87761.73624</v>
+        <v>83719.52449</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>222632.2829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>196407.14279</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>186223.495</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>174702.22364</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>269549.17889</v>
+        <v>269299.12852</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>168701.55072</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>260559.02398</v>
+        <v>260395.83589</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>256776.48576</v>
+        <v>256733.19078</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>307326.31057</v>
+        <v>306860.18372</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>276380.8626000001</v>
+        <v>275349.93166</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>353011.28204</v>
+        <v>345220.50326</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>318110.89347</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>262977.866</v>
+        <v>209898.8453</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>195126.55132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>190573.50132</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>296466.807</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>5178.34775</v>
+        <v>5032.928559999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>12738.30116</v>
+        <v>12596.9041</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>11245.05874</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>15060.91061</v>
+        <v>14703.84124</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>17571.17633</v>
+        <v>16761.13984</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>16576.51754</v>
+        <v>17797.71661</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>22913.42263</v>
+        <v>22990.67083</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>29402.98406</v>
+        <v>28539.45374</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>44321.82702</v>
+        <v>42041.87889</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>33776.2577</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>21917.52246</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>24589.067</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>371910.91857</v>
+        <v>349462.77175</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>443672.97841</v>
+        <v>418921.18701</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>496727.84497</v>
+        <v>462206.23442</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>532866.4977599999</v>
+        <v>501094.32771</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>525966.9166</v>
+        <v>483662.20792</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>561822.76767</v>
+        <v>522641.93723</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>574642.66226</v>
+        <v>557482.6631799999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>607968.43044</v>
+        <v>565560.04342</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>716433.3216200001</v>
+        <v>697800.92317</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>782245.2986799999</v>
+        <v>779627.51821</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>746469.67246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>705718.3326900001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1152864.35</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>283134.92285</v>
+        <v>266973.07069</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>380761.49358</v>
+        <v>355460.83658</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>376260.41467</v>
+        <v>355447.70205</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>396357.77017</v>
+        <v>373380.64342</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>366491.86008</v>
+        <v>346398.74492</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>444355.99144</v>
+        <v>419198.46167</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>393322.38589</v>
+        <v>379527.14061</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>388910.43773</v>
+        <v>351538.34168</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>359611.05705</v>
+        <v>340358.91702</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>366847.27917</v>
+        <v>347677.8312</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>391409.95485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>371350.18199</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>524952.426</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>628.58075</v>
@@ -1583,7 +1569,7 @@
         <v>3403.08642</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>5187.04241</v>
+        <v>5179.193780000001</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>1994.72491</v>
@@ -1592,7 +1578,7 @@
         <v>1167.2201</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>827.8461600000001</v>
+        <v>1059.8259</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>906.3077099999999</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>2462.65193</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>4540.986</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>153133.17776</v>
+        <v>151140.24359</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>172803.04158</v>
+        <v>169868.28075</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>171236.23202</v>
+        <v>166291.0976</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>190571.42912</v>
+        <v>186020.47471</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>171445.44785</v>
+        <v>167465.09178</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>183202.06411</v>
+        <v>173556.15339</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>173745.38907</v>
+        <v>168525.99208</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>138952.83872</v>
+        <v>126714.85499</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>134495.56751</v>
+        <v>129986.58336</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>140952.76505</v>
+        <v>132521.15687</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>141014.45312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>135370.18199</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>190995.2</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>129373.16434</v>
+        <v>115204.24635</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>207663.66978</v>
+        <v>185297.77361</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>201621.09623</v>
+        <v>185753.51803</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>200599.29864</v>
+        <v>182180.97493</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>193051.68732</v>
+        <v>176938.92823</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>259986.70723</v>
+        <v>244475.08818</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>218749.15066</v>
+        <v>209941.32263</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>249051.2913</v>
+        <v>223917.17898</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>224235.63741</v>
+        <v>209492.48153</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>224628.66146</v>
+        <v>213890.82167</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>247932.8498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>233517.34807</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>329416.24</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>88775.99571999999</v>
+        <v>82489.70106000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>62911.48483</v>
+        <v>63460.35043</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>120467.4303</v>
+        <v>106758.53237</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>136508.72759</v>
+        <v>127713.68429</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>159475.05652</v>
+        <v>137263.463</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>117466.77623</v>
+        <v>103443.47556</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>181320.27637</v>
+        <v>177955.52257</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>219057.99271</v>
+        <v>214021.70174</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>356822.26457</v>
+        <v>357442.00615</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>415398.01951</v>
+        <v>431949.68701</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>355059.71761</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>334368.1507</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>627911.924</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>136094.97806</v>
+        <v>130300.68862</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>142953.46127</v>
+        <v>130367.36781</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>111262.43512</v>
+        <v>104857.93042</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>127287.50152</v>
+        <v>122371.87817</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>127867.90186</v>
+        <v>117409.78309</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>148208.8194</v>
+        <v>162021.11995</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>175414.66015</v>
+        <v>183482.66118</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>133565.00626</v>
+        <v>127074.68491</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>246765.78921</v>
+        <v>231584.35293</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>426203.99525</v>
+        <v>401026.95261</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>261878.59771</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>248345.9474</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>510353.319</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>71.08433000000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>62.94514</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>58.183</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>9691.694529999999</v>
+        <v>9448.660820000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>8967.64423</v>
+        <v>8191.07172</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>6981.22965</v>
+        <v>6172.375440000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10574.71073</v>
+        <v>9748.25864</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>14487.92722</v>
+        <v>12643.52207</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>22317.65717</v>
+        <v>22438.63253</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>27794.42639</v>
+        <v>20115.61188</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>14958.38215</v>
+        <v>14933.69956</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>26294.7664</v>
+        <v>20912.95344</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>31528.92574</v>
+        <v>27131.66451</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>41126.44876</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>35367.84258</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>38789.546</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>79.64580000000001</v>
@@ -1892,25 +1918,25 @@
         <v>6.456</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>10.26747</v>
+        <v>4.855</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>101.68382</v>
+        <v>92.84094999999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>8.883749999999999</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>9.934620000000001</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>10.72764</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>10.75008</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>13.59774</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0</v>
@@ -1918,50 +1944,60 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1638.50521</v>
+        <v>1626.43003</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2677.2872</v>
+        <v>2667.4051</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2399.59531</v>
+        <v>1686.09381</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>6560.57595</v>
+        <v>6368.44765</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1109.6526</v>
+        <v>1049.09914</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2003.66317</v>
+        <v>1897.24992</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2360.21995</v>
+        <v>2385.21995</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2554.26821</v>
+        <v>2476.41879</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3047.29996</v>
+        <v>2943.26181</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1623.02485</v>
+        <v>1611.39657</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>1498.60741</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1555.92</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>594.6825699999999</v>
@@ -1970,25 +2006,25 @@
         <v>202.68127</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>6514.65179</v>
+        <v>4514.65179</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2945.07493</v>
+        <v>2445.07493</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>1556.44431</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4557.50821</v>
+        <v>3924.9399</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2648.22252</v>
+        <v>2300.37312</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1227.05522</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1762.91763</v>
+        <v>376.43368</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>2.41676</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>1341.77158</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>581.476</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>102470.68987</v>
+        <v>98408.12706999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>107423.77185</v>
+        <v>96919.58564</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>70686.34392</v>
+        <v>69506.54733</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>79538.53367</v>
+        <v>76524.72672000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>70809.92909000001</v>
+        <v>64515.85647999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>72809.22404999999</v>
+        <v>90433.11048</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>104715.44221</v>
+        <v>122278.71703</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>79804.92739</v>
+        <v>77839.955</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>159059.48176</v>
+        <v>154626.791</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>345219.50499</v>
+        <v>330255.62595</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>153869.05856</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>152634.0801</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>416683.431</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>374.248</v>
@@ -2048,7 +2094,7 @@
         <v>543.74307</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>1702.4579</v>
+        <v>1009.03925</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>2052.70545</v>
@@ -2069,16 +2115,21 @@
         <v>20585.21591</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>17245.21156</v>
+        <v>13145.28907</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>18908.53365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>17306.03578</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>6086.368</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,113 +2164,128 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>21174.42775</v>
+        <v>19697.81</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>22412.70491</v>
+        <v>21117.25227</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>22967.40551</v>
+        <v>21963.88423</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>25142.15133</v>
+        <v>24767.75819</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>31493.75976</v>
+        <v>29243.55596</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>28674.01406</v>
+        <v>25490.369</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>23332.44893</v>
+        <v>21849.56669</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>17181.77222</v>
+        <v>12769.70535</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>33311.78148</v>
+        <v>29448.96876</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>30584.91135</v>
+        <v>28880.55975</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>45071.23261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>40134.66481</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>46598.395</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>74439.85243000001</v>
+        <v>69088.34529000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>80415.57851000001</v>
+        <v>68219.62181999999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>100060.94633</v>
+        <v>92555.66220999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>72115.76957999999</v>
+        <v>67880.81814</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>138429.80049</v>
+        <v>119357.76168</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>107533.41576</v>
+        <v>121844.18353</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>169936.71575</v>
+        <v>193600.14246</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>136973.17008</v>
+        <v>129701.03972</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>227065.99156</v>
+        <v>209943.63958</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>441412.34776</v>
+        <v>407580.09329</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>175892.15291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>168473.64845</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>425152.782</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>415.72542</v>
+        <v>284.0897</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>358.07066</v>
+        <v>246.01741</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>261.63215</v>
+        <v>147.43872</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>436.23947</v>
+        <v>339.03756</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>55.28182</v>
+        <v>53.94925</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>73.03487</v>
+        <v>70.27747000000001</v>
       </c>
       <c r="I37" s="48" t="n">
         <v>67.84854</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>270.14473</v>
+        <v>269.65737</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>403.67441</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>1098.76567</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>940.778</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>11964.04563</v>
+        <v>10235.49496</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>15193.79899</v>
+        <v>15078.64368</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>10691.75854</v>
+        <v>9847.89133</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5765.728440000001</v>
+        <v>4857.128360000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>12887.34351</v>
+        <v>6496.77511</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>7639.92094</v>
+        <v>7430.75832</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>13207.22317</v>
+        <v>13067.91621</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>16590.39862</v>
+        <v>16382.30772</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>22491.69641</v>
+        <v>12284.52917</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>11225.29223</v>
+        <v>8634.07807</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>11411.28454</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>6792.6013</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>13247.875</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>148.78122</v>
@@ -2297,7 +2373,7 @@
         <v>0.0216</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>18.86495</v>
+        <v>0.07786</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>5474.396</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>49836.29618</v>
+        <v>46360.96063</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>51616.92675</v>
+        <v>39757.25789</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>70574.73568000001</v>
+        <v>64841.27594</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>52910.94644</v>
+        <v>49691.08088</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>104590.94296</v>
+        <v>94429.35329000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>69933.86212999999</v>
+        <v>86784.27111</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>132540.81539</v>
+        <v>156481.62321</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>103926.34558</v>
+        <v>99373.43078</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>178040.78855</v>
+        <v>171219.90646</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>406872.48177</v>
+        <v>380928.80748</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>149595.12557</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>146793.82747</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>399491.3</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>294.51613</v>
@@ -2360,7 +2446,7 @@
         <v>1517.10954</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>2079.61015</v>
+        <v>1327.78354</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>2356.41329</v>
@@ -2381,16 +2467,21 @@
         <v>20647.57162</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>20914.88914</v>
+        <v>15827.27231</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>11226.15841</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>4969.773</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,134 +2516,154 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>11780.48785</v>
+        <v>11764.50265</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>11704.07752</v>
+        <v>11594.99825</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>16453.20981</v>
+        <v>16391.27268</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>9724.821739999999</v>
+        <v>9715.537849999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8829.25439</v>
+        <v>6310.70622</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>13604.83326</v>
+        <v>11277.11207</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3383.6286</v>
+        <v>3245.55445</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3699.53261</v>
+        <v>1207.6824</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>5482.26057</v>
+        <v>5387.95792</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1140.95933</v>
+        <v>931.21014</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>2560.81872</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2562.2956</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1028.66</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>104317.3127</v>
+        <v>97568.91109000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>108268.36849</v>
+        <v>101038.81941</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>124495.49173</v>
+        <v>120754.35905</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>91429.81256999999</v>
+        <v>85419.98797</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>109009.05539</v>
+        <v>103963.19782</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>89744.33781999999</v>
+        <v>88868.22245999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>112793.66699</v>
+        <v>104908.14777</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>120504.06274</v>
+        <v>107900.2497</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>161083.01195</v>
+        <v>150243.22243</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>189897.22137</v>
+        <v>112207.78406</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>94181.71472</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>83048.45874</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>113447.828</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>101682.61546</v>
+        <v>94934.21385</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>100309.2208</v>
+        <v>93877.93665</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>101443.48667</v>
+        <v>97702.35398999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>84304.61549</v>
+        <v>78294.79089</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>87857.32831</v>
+        <v>82811.47073999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>84264.24321</v>
+        <v>83001.82264</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>107899.53552</v>
+        <v>99346.36966</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>113132.6338</v>
+        <v>100528.82076</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>152145.83761</v>
+        <v>141306.04809</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>178505.3707</v>
+        <v>100815.93339</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>72954.13701000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>61820.88103</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>73789.54300000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2634.69724</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>7959.147690000001</v>
+        <v>7160.88276</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>23052.00506</v>
@@ -2564,10 +2675,10 @@
         <v>21151.72708</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>5480.09461</v>
+        <v>5866.399820000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4894.131469999999</v>
+        <v>5561.77811</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>7371.428940000001</v>
@@ -2581,116 +2692,131 @@
       <c r="M46" s="48" t="n">
         <v>21227.57771</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>39658.285</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>46113.80865</v>
+        <v>46133.13329999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>17180.9991</v>
+        <v>24569.27701</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>7173.427360000001</v>
+        <v>-1693.55847</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>100250.64696</v>
+        <v>96784.75635</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>39904.1025</v>
+        <v>31352.28659</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>68397.84204999999</v>
+        <v>54752.18952</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>74004.55378</v>
+        <v>62929.89352000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>95145.76615000001</v>
+        <v>103495.09723</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>215439.05027</v>
+        <v>228839.49707</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>210292.44563</v>
+        <v>313188.76227</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>346864.44769</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>331191.9909100001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>599664.633</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>53496.8028</v>
+        <v>34936.02236</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>10405.13137</v>
+        <v>9019.56155</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>18003.43245</v>
+        <v>10019.58323</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>26682.03298</v>
+        <v>15068.6282</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>10393.3944</v>
+        <v>9244.38522</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>60773.45797</v>
+        <v>57093.14911999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>26440.05977</v>
+        <v>25647.63478</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>54876.74742</v>
+        <v>53250.70438</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>28885.83973</v>
+        <v>19326.20474</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11874.3405</v>
+        <v>11404.92785</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>35397.00807</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>35164.72764</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>19845.809</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>119.82342</v>
+        <v>33.06858999999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>15.81109</v>
+        <v>4.42109</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>757.8981</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>138.90747</v>
+        <v>129.62143</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>78.36288</v>
+        <v>36.21178</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>717.90486</v>
+        <v>767.49925</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>110.24177</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>923.0561</v>
+        <v>607.16904</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>303.50515</v>
@@ -2698,110 +2824,125 @@
       <c r="M49" s="48" t="n">
         <v>1275.70177</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1536.727</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>53376.97938</v>
+        <v>34902.95377</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>10389.32028</v>
+        <v>9015.140460000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>17963.43245</v>
+        <v>10019.58323</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>25924.13488</v>
+        <v>14310.7301</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>10254.48693</v>
+        <v>9114.763789999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>60695.09509</v>
+        <v>57056.93734</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>25722.15491</v>
+        <v>24880.13553</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>54766.50565</v>
+        <v>53140.46261</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>27962.78363</v>
+        <v>18719.0357</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>11570.83535</v>
+        <v>11101.4227</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>34121.3063</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>33889.02587</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>18309.082</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>41138.23603</v>
+        <v>36054.15775</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>55949.99333</v>
+        <v>53660.9185</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>58902.99384</v>
+        <v>49097.22847</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>65602.09596000001</v>
+        <v>64101.17632999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>31871.27364</v>
+        <v>30521.65599</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>110545.46652</v>
+        <v>56856.28373</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>21396.06296</v>
+        <v>21047.99064</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>47133.51973</v>
+        <v>42409.43702</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>33768.16366</v>
+        <v>28610.69115</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>36500.20647</v>
+        <v>35193.06907</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>38026.00413</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>23203.52206</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>32086.608</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3455.53216</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>5296.495110000001</v>
+        <v>4163.931680000001</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>5656.57912</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>7840.194570000001</v>
+        <v>7311.16425</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>4372.352559999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>3109.8065</v>
+        <v>3215.03135</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2984.10533</v>
+        <v>2993.82165</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>4067.61556</v>
@@ -2810,43 +2951,48 @@
         <v>8531.3945</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>5082.56755</v>
+        <v>5060.15659</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>17326.66172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2861.92836</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>20063.448</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>234.94676</v>
+        <v>185.77098</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>535.3986600000001</v>
+        <v>515.87386</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>299.2556</v>
+        <v>295.84678</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1402.8096</v>
+        <v>1383.54842</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>411.05206</v>
+        <v>291.91706</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1328.23102</v>
+        <v>1313.1338</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>843.11636</v>
+        <v>843.86822</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>881.9724100000001</v>
+        <v>754.45502</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>887.30144</v>
+        <v>883.59892</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>1103.27785</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>1407.75952</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>2014.233</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>37447.75711</v>
+        <v>32412.85461</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>50118.09956</v>
+        <v>48981.11296</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>52947.15912</v>
+        <v>43144.80257</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>56359.09179</v>
+        <v>55406.46365999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>27087.86902</v>
+        <v>25857.38637</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>106107.429</v>
+        <v>52328.11857999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17568.84127</v>
+        <v>17210.30077</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>42183.93176</v>
+        <v>37587.36644</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>24349.46772</v>
+        <v>19195.69773</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>30314.36107</v>
+        <v>29029.63463</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>19291.58289</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>18933.83418</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>10008.927</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>58472.37542</v>
+        <v>45014.99791</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-28363.86286</v>
+        <v>-20072.07994</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-33726.13403</v>
+        <v>-40771.20371</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>61330.58398</v>
+        <v>47752.20822</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>18426.22326</v>
+        <v>10075.01582</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>18625.8335</v>
+        <v>54989.05491</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>79048.55059</v>
+        <v>67529.53766</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>102888.99384</v>
+        <v>114336.36459</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>210556.72634</v>
+        <v>219555.01066</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>185666.57966</v>
+        <v>289400.62105</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>344235.45163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>343153.19649</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>587423.834</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>25601.42576</v>
+        <v>24846.76817</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>34970.09882</v>
+        <v>34461.21326</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>29406.17696</v>
+        <v>25994.24983</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>33771.44704</v>
+        <v>30797.38852</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>32127.86823</v>
+        <v>29797.85446</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>32648.60519</v>
+        <v>29987.82172</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>29653.94213</v>
+        <v>28894.47877</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>37213.22924</v>
+        <v>35732.76916</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>51246.67781</v>
+        <v>50321.35838000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>65747.61014999999</v>
+        <v>64541.27365</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>73334.20271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>73281.07743</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>115893.639</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>32870.94966</v>
+        <v>20168.22974</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-63333.96168</v>
+        <v>-54533.2932</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-63132.31099000001</v>
+        <v>-66765.45354</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>27559.13694</v>
+        <v>16954.8197</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-13701.64497</v>
+        <v>-19722.83864</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-14022.77169</v>
+        <v>25001.23319</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>49394.60846</v>
+        <v>38635.05889</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>65675.76459999999</v>
+        <v>78603.59543</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>159310.04853</v>
+        <v>169233.65228</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>119918.96951</v>
+        <v>224859.3474</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>270901.24892</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>269872.11906</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>471530.195</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>24</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>28</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>32</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>31</v>
       </c>
-      <c r="H59" s="35" t="n">
+      <c r="K59" s="35" t="n">
         <v>34</v>
       </c>
-      <c r="I59" s="35" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>44</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>47</v>
-      </c>
       <c r="L59" s="35" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M59" s="35" t="n">
+        <v>15</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>